--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/56_Manisa_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/56_Manisa_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F5AA4C-1100-4AEF-9290-E4A6B253E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54EAA9A-B966-4626-995F-FCB23F1FE4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{E0626755-4316-4A10-80E7-95701201E91E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{46EEF038-3CB2-4491-BCF6-9B89AA264EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B8DFF46C-9024-4150-A882-33CCD57547FF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E0FF048C-B4EF-4BD3-96E0-7830121F8960}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{40641CCC-601C-4E69-A948-50E947223B59}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9D957636-673B-43C3-9B44-9FE6631836DC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{6A02A23D-BABB-43ED-B70B-AEA3B8B53569}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{707D0158-3824-4B3B-8CAF-1C850D3CFD03}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1D11ACA1-BB19-4FD8-B724-610D69540C31}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1F43DE7E-4383-4454-8351-20CDA67E3DD9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6DFBB80D-A2AE-447D-985B-7C63636560FF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D484EA7E-3DE6-4B41-8705-DECE242CB140}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{A7671A33-C204-48BF-924D-62F23079E65F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DDF7F748-314A-4D05-82E7-FEE0D75401B3}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{DA1064AB-B745-46CA-AE07-70ED84DA4D1A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5387865D-2FBB-4272-ACA7-D658FB6312BF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2B1710-281E-42D2-BEE7-EE5789D8D957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCCFB77-F898-467B-BD28-18E64B6D048D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AE94C3-0C6E-4DA3-8769-2C3BF9F794A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E2003-E5E6-4014-A5A2-8F1BDA3793F1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3915,7 +3915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB50D61-9874-4B96-B2E2-3F33BE5BDD5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DBB81E-9636-4E82-8A7F-065C64C39BA7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5224,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096B4DEE-B58B-4934-8F9F-9619B366B208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED535BB-663E-4793-8E10-DEF7A94CB5D1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC0D74E-28E7-41BA-AAFD-A36C9E26CD8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379996E3-3DB2-42BE-A11D-DBE17199AD56}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7840,7 +7840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338790A6-0B57-4750-A0BE-B1F6FE2C094F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D731C-DDA4-4D0E-94A3-D42D7142A354}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9151,7 +9151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF222496-3A07-411E-A1C5-8D6329F542B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09136BC7-D251-4AB5-9E0B-4B4D7C8A3A54}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10464,7 +10464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368D57B-E356-4181-9455-31E47DBF563A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A9F07-08C3-4BDE-AD33-AD3F95512344}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11777,7 +11777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A947E-C40E-4BBB-8194-5BF05AC78903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E3AD0D-058C-47EA-B616-9730387EDF7A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13088,7 +13088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DB93-C741-48AF-A907-91AC2681D5E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B04454F-B902-470F-9849-C987A5B8B83C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14401,7 +14401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF6D11B-2DCC-4060-969C-2A48952F5E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245C192-32E0-4C24-994D-B944FA90E92E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15708,7 +15708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788FE10C-D2F4-40B3-9680-466CEC86C385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA440D20-1429-4CEF-B32D-E4CB5C90ED63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
